--- a/TrueBq01/Histograms/List of radionuclides to run 2021_03_29.xlsx
+++ b/TrueBq01/Histograms/List of radionuclides to run 2021_03_29.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\g4work\Geant 4.10.7\TrueBq01-build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\g4work\Geant 4.10.7\TrueBq01-build\Histograms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC6162F-41CF-423D-AC03-18E801347AC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881E2E0-86C2-46D1-B3A9-F0BEF4486FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4953" yWindow="1167" windowWidth="16847" windowHeight="10080" xr2:uid="{78FF24E9-BBFA-4ED1-AFB1-D89C10784207}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{78FF24E9-BBFA-4ED1-AFB1-D89C10784207}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="155">
   <si>
     <t>Atomic Number</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>Concatenate with line breaks</t>
+  </si>
+  <si>
+    <t>U-233</t>
+  </si>
+  <si>
+    <t>/gun/ion 92 233 # U-233</t>
   </si>
 </sst>
 </file>
@@ -962,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB7EF4-1098-48DD-97D3-C6E625279922}">
-  <dimension ref="A1:AD118"/>
+  <dimension ref="A1:AD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
@@ -1196,7 +1202,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:I15" si="0">VLOOKUP(LEFT(H7,FIND("-",H7)-1),$AC$2:$AD$118,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(H7,FIND("-",H7)-1),$AC$2:$AD$119,2,FALSE)</f>
         <v>88</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -1207,7 +1213,7 @@
         <v>4870.62</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L15" si="1">M7-$L$3</f>
+        <f t="shared" ref="L7:L16" si="0">M7-$L$3</f>
         <v>3390</v>
       </c>
       <c r="M7" s="1">
@@ -1255,38 +1261,38 @@
         <v>39</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(LEFT(H8,FIND("-",H8)-1),$AC$2:$AD$119,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" ref="J8:J15" si="2">RIGHT(H8,LEN(H8)-FIND("-",H8))</f>
+        <f t="shared" ref="J8:J16" si="1">RIGHT(H8,LEN(H8)-FIND("-",H8))</f>
         <v>230</v>
       </c>
       <c r="K8" s="8">
         <v>4770</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3280</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:M15" si="3">_xlfn.CEILING.MATH(K8+$L$2,$L$2)</f>
+        <f t="shared" ref="M8:M16" si="2">_xlfn.CEILING.MATH(K8+$L$2,$L$2)</f>
         <v>4780</v>
       </c>
       <c r="N8" s="1" t="str">
-        <f t="shared" ref="N8:N15" si="4">_xlfn.CONCAT("/gun/ion "&amp;I8&amp;" "&amp;J8&amp;" # "&amp;H8)</f>
+        <f t="shared" ref="N8:N16" si="3">_xlfn.CONCAT("/gun/ion "&amp;I8&amp;" "&amp;J8&amp;" # "&amp;H8)</f>
         <v>/gun/ion 90 230 # Th-230</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f t="shared" ref="O8:O15" si="5">_xlfn.CONCAT("/process/had/rdm/nucleusLimits "&amp;J8&amp;" "&amp;J8&amp;" "&amp;I8&amp;" "&amp;I8)</f>
+        <f t="shared" ref="O8:O16" si="4">_xlfn.CONCAT("/process/had/rdm/nucleusLimits "&amp;J8&amp;" "&amp;J8&amp;" "&amp;I8&amp;" "&amp;I8)</f>
         <v>/process/had/rdm/nucleusLimits 230 230 90 90</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f t="shared" ref="P8:P15" si="6">_xlfn.CONCAT(("/analysis/h1/set 0 "&amp;$B$3&amp;" "&amp;L8&amp;" "&amp;M8&amp;" keV"))</f>
+        <f t="shared" ref="P8:P15" si="5">_xlfn.CONCAT(("/analysis/h1/set 0 "&amp;$B$3&amp;" "&amp;L8&amp;" "&amp;M8&amp;" keV"))</f>
         <v>/analysis/h1/set 0 10000 3280 4780 keV</v>
       </c>
       <c r="Q8" s="1" t="str">
-        <f t="shared" ref="Q8:Q15" si="7">_xlfn.CONCAT("/analysis/setFileName "&amp; H8)</f>
+        <f t="shared" ref="Q8:Q16" si="6">_xlfn.CONCAT("/analysis/setFileName "&amp; H8)</f>
         <v>/analysis/setFileName Th-230</v>
       </c>
       <c r="R8" s="10"/>
@@ -1314,38 +1320,38 @@
         <v>45</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(LEFT(H9,FIND("-",H9)-1),$AC$2:$AD$119,2,FALSE)</f>
         <v>91</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="K9" s="8">
         <v>5149.8999999999996</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f>M9-$L$3</f>
         <v>3660</v>
       </c>
       <c r="M9" s="1">
+        <f>_xlfn.CEILING.MATH(K9+$L$2,$L$2)</f>
+        <v>5160</v>
+      </c>
+      <c r="N9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>5160</v>
-      </c>
-      <c r="N9" s="1" t="str">
+        <v>/gun/ion 91 231 # Pa-231</v>
+      </c>
+      <c r="O9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>/gun/ion 91 231 # Pa-231</v>
-      </c>
-      <c r="O9" s="1" t="str">
+        <v>/process/had/rdm/nucleusLimits 231 231 91 91</v>
+      </c>
+      <c r="P9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>/process/had/rdm/nucleusLimits 231 231 91 91</v>
-      </c>
-      <c r="P9" s="1" t="str">
+        <v>/analysis/h1/set 0 10000 3660 5160 keV</v>
+      </c>
+      <c r="Q9" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>/analysis/h1/set 0 10000 3660 5160 keV</v>
-      </c>
-      <c r="Q9" s="1" t="str">
-        <f t="shared" si="7"/>
         <v>/analysis/setFileName Pa-231</v>
       </c>
       <c r="R9" s="10"/>
@@ -1372,258 +1378,234 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>234</v>
+      <c r="J10" s="1">
+        <v>233</v>
       </c>
       <c r="K10" s="8">
-        <v>4857.7</v>
+        <v>4908.5</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
-        <v>3370</v>
+        <f>M10-$L$3</f>
+        <v>3420</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="3"/>
-        <v>4870</v>
-      </c>
-      <c r="N10" s="1" t="str">
+        <f>_xlfn.CEILING.MATH(K10+$L$2,$L$2)</f>
+        <v>4920</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>/gun/ion 92 234 # U-234</v>
-      </c>
-      <c r="O10" s="1" t="str">
+        <v>/process/had/rdm/nucleusLimits 233 233 92 92</v>
+      </c>
+      <c r="P10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>/process/had/rdm/nucleusLimits 234 234 92 92</v>
-      </c>
-      <c r="P10" s="1" t="str">
+        <v>/analysis/h1/set 0 10000 3420 4920 keV</v>
+      </c>
+      <c r="Q10" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>/analysis/h1/set 0 10000 3370 4870 keV</v>
-      </c>
-      <c r="Q10" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>/analysis/setFileName U-234</v>
+        <v>/analysis/setFileName U-233</v>
       </c>
       <c r="R10" s="10"/>
-      <c r="X10" s="1">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="G11" s="1">
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1">
+        <f>VLOOKUP(LEFT(H11,FIND("-",H11)-1),$AC$2:$AD$119,2,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4857.7</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="str">
+        <v>3370</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>235</v>
-      </c>
-      <c r="K11" s="8">
-        <v>4678.3</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="1"/>
-        <v>3190</v>
-      </c>
-      <c r="M11" s="1">
+        <v>4870</v>
+      </c>
+      <c r="N11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>4690</v>
-      </c>
-      <c r="N11" s="1" t="str">
+        <v>/gun/ion 92 234 # U-234</v>
+      </c>
+      <c r="O11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>/gun/ion 92 235 # U-235</v>
-      </c>
-      <c r="O11" s="1" t="str">
+        <v>/process/had/rdm/nucleusLimits 234 234 92 92</v>
+      </c>
+      <c r="P11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>/process/had/rdm/nucleusLimits 235 235 92 92</v>
-      </c>
-      <c r="P11" s="1" t="str">
+        <v>/analysis/h1/set 0 10000 3370 4870 keV</v>
+      </c>
+      <c r="Q11" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>/analysis/h1/set 0 10000 3190 4690 keV</v>
-      </c>
-      <c r="Q11" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>/analysis/setFileName U-235</v>
+        <v>/analysis/setFileName U-234</v>
       </c>
       <c r="R11" s="10"/>
       <c r="X11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AD11" s="1">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="1">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>76</v>
+      <c r="A12" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1">
+        <f>VLOOKUP(LEFT(H12,FIND("-",H12)-1),$AC$2:$AD$119,2,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4678.3</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="J12" s="1" t="str">
+        <v>3190</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>238</v>
-      </c>
-      <c r="K12" s="8">
-        <v>5593.2</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>4110</v>
-      </c>
-      <c r="M12" s="1">
+        <v>4690</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>5610</v>
-      </c>
-      <c r="N12" s="1" t="str">
+        <v>/gun/ion 92 235 # U-235</v>
+      </c>
+      <c r="O12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>/gun/ion 94 238 # Pu-238</v>
-      </c>
-      <c r="O12" s="1" t="str">
+        <v>/process/had/rdm/nucleusLimits 235 235 92 92</v>
+      </c>
+      <c r="P12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>/process/had/rdm/nucleusLimits 238 238 94 94</v>
-      </c>
-      <c r="P12" s="1" t="str">
+        <v>/analysis/h1/set 0 10000 3190 4690 keV</v>
+      </c>
+      <c r="Q12" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>/analysis/h1/set 0 10000 4110 5610 keV</v>
-      </c>
-      <c r="Q12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>/analysis/setFileName Pu-238</v>
+        <v>/analysis/setFileName U-235</v>
       </c>
       <c r="R12" s="10"/>
       <c r="X12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AD12" s="1">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="1">
-        <f>A12*5</f>
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="3"/>
       <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1">
+        <f>VLOOKUP(LEFT(H13,FIND("-",H13)-1),$AC$2:$AD$119,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5593.2</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="J13" s="1" t="str">
+        <v>4110</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="2"/>
-        <v>239</v>
-      </c>
-      <c r="K13" s="8">
-        <v>5244.51</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>3760</v>
-      </c>
-      <c r="M13" s="1">
+        <v>5610</v>
+      </c>
+      <c r="N13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>5260</v>
-      </c>
-      <c r="N13" s="1" t="str">
+        <v>/gun/ion 94 238 # Pu-238</v>
+      </c>
+      <c r="O13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>/gun/ion 94 239 # Pu-239</v>
-      </c>
-      <c r="O13" s="1" t="str">
+        <v>/process/had/rdm/nucleusLimits 238 238 94 94</v>
+      </c>
+      <c r="P13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>/process/had/rdm/nucleusLimits 239 239 94 94</v>
-      </c>
-      <c r="P13" s="13" t="str">
+        <v>/analysis/h1/set 0 10000 4110 5610 keV</v>
+      </c>
+      <c r="Q13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>/analysis/h1/set 0 10000 3760 5260 keV</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>/analysis/setFileName Pu-239</v>
+        <v>/analysis/setFileName Pu-238</v>
       </c>
       <c r="R13" s="10"/>
       <c r="X13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AD13" s="1">
-        <v>107</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="1">
         <f>A13*5</f>
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>76</v>
@@ -1633,1880 +1615,1947 @@
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1">
+        <f>VLOOKUP(LEFT(H14,FIND("-",H14)-1),$AC$2:$AD$119,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5244.51</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="J14" s="1" t="str">
+        <v>3760</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K14" s="8">
-        <v>5255.75</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
-        <v>3770</v>
-      </c>
-      <c r="M14" s="1">
+        <v>5260</v>
+      </c>
+      <c r="N14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>5270</v>
-      </c>
-      <c r="N14" s="1" t="str">
+        <v>/gun/ion 94 239 # Pu-239</v>
+      </c>
+      <c r="O14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>/gun/ion 94 240 # Pu-240</v>
-      </c>
-      <c r="O14" s="1" t="str">
+        <v>/process/had/rdm/nucleusLimits 239 239 94 94</v>
+      </c>
+      <c r="P14" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>/process/had/rdm/nucleusLimits 240 240 94 94</v>
-      </c>
-      <c r="P14" s="1" t="str">
+        <v>/analysis/h1/set 0 10000 3760 5260 keV</v>
+      </c>
+      <c r="Q14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>/analysis/h1/set 0 10000 3770 5270 keV</v>
-      </c>
-      <c r="Q14" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>/analysis/setFileName Pu-240</v>
+        <v>/analysis/setFileName Pu-239</v>
       </c>
       <c r="R14" s="10"/>
       <c r="X14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD14" s="1">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="C15" s="4"/>
+      <c r="A15" s="1">
+        <f>A14*5</f>
+        <v>750</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1">
+        <f>VLOOKUP(LEFT(H15,FIND("-",H15)-1),$AC$2:$AD$119,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="K15" s="8">
+        <v>5255.75</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="J15" s="1" t="str">
+        <v>3770</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="2"/>
-        <v>241</v>
-      </c>
-      <c r="K15" s="8">
-        <v>5637.82</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="1"/>
-        <v>4150</v>
-      </c>
-      <c r="M15" s="1">
+        <v>5270</v>
+      </c>
+      <c r="N15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>5650</v>
-      </c>
-      <c r="N15" s="1" t="str">
+        <v>/gun/ion 94 240 # Pu-240</v>
+      </c>
+      <c r="O15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>/gun/ion 95 241 # Am-241</v>
-      </c>
-      <c r="O15" s="1" t="str">
+        <v>/process/had/rdm/nucleusLimits 240 240 94 94</v>
+      </c>
+      <c r="P15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>/process/had/rdm/nucleusLimits 241 241 95 95</v>
-      </c>
-      <c r="P15" s="1" t="str">
-        <f>_xlfn.CONCAT(("/analysis/h1/set 0 "&amp;$B$3&amp;" "&amp;L15&amp;" "&amp;M15&amp;" keV"))</f>
-        <v>/analysis/h1/set 0 10000 4150 5650 keV</v>
+        <v>/analysis/h1/set 0 10000 3770 5270 keV</v>
       </c>
       <c r="Q15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>/analysis/setFileName Am-241</v>
+        <f t="shared" si="6"/>
+        <v>/analysis/setFileName Pu-240</v>
       </c>
       <c r="R15" s="10"/>
       <c r="X15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="C16" s="4"/>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="1">
+        <f>VLOOKUP(LEFT(H16,FIND("-",H16)-1),$AC$2:$AD$119,2,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="K16" s="8">
+        <v>5637.82</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>4150</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>5650</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>/gun/ion 95 241 # Am-241</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/process/had/rdm/nucleusLimits 241 241 95 95</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f>_xlfn.CONCAT(("/analysis/h1/set 0 "&amp;$B$3&amp;" "&amp;L16&amp;" "&amp;M16&amp;" keV"))</f>
+        <v>/analysis/h1/set 0 10000 4150 5650 keV</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/analysis/setFileName Am-241</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="X16" s="1">
         <v>14</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z16" s="1">
         <v>14</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD16" s="1">
         <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="X16" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>15</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="6:30">
       <c r="X17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AD17" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="6:30">
       <c r="X18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="AD18" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="6:30">
       <c r="X19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Z19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AD19" s="1">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="6:30">
       <c r="X20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="Z20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="6:30">
       <c r="X21" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="6:30">
+      <c r="X22" s="1">
         <v>20</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z22" s="1">
         <v>20</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD22" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="6:30">
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="X22" s="1">
+    <row r="23" spans="6:30">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="X23" s="1">
         <v>21</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z23" s="1">
         <v>21</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD23" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="6:30">
-      <c r="F23" s="2"/>
-      <c r="X23" s="1">
+    <row r="24" spans="6:30">
+      <c r="F24" s="2"/>
+      <c r="X24" s="1">
         <v>22</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z24" s="1">
         <v>22</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD24" s="1">
         <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="6:30">
-      <c r="X24" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>23</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="6:30">
       <c r="X25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD25" s="1">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="6:30">
       <c r="X26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD26" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="6:30">
       <c r="X27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AD27" s="1">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="6:30">
       <c r="X28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD28" s="1">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="6:30">
       <c r="X29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Z29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD29" s="1">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="6:30">
       <c r="X30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD30" s="1">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="6:30">
       <c r="X31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AD31" s="1">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="6:30">
       <c r="X32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD32" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="3:30">
       <c r="X33" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:30">
+      <c r="X34" s="1">
         <v>32</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Y34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="Z34" s="1">
         <v>32</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AC34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AD34" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="3:30">
-      <c r="C34" s="4"/>
-      <c r="X34" s="1">
+    <row r="35" spans="3:30">
+      <c r="C35" s="4"/>
+      <c r="X35" s="1">
         <v>33</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Y35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z35" s="1">
         <v>33</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AC35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AD35" s="1">
         <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="3:30">
-      <c r="X35" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>34</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="36" spans="3:30">
       <c r="X36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="Z36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD36" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="3:30">
       <c r="X37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Z37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD37" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="3:30">
       <c r="X38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD38" s="1">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="3:30">
       <c r="X39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="3:30">
       <c r="X40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AD40" s="1">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="3:30">
       <c r="X41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AD41" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="3:30">
       <c r="X42" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30">
+      <c r="X43" s="1">
         <v>41</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Z43" s="1">
         <v>41</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AC43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AD43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:30">
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="X43" s="1">
+    <row r="44" spans="3:30">
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="X44" s="1">
         <v>42</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Y44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="Z44" s="1">
         <v>42</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AC44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AD44" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:30">
-      <c r="X44" s="1">
-        <v>43</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>43</v>
-      </c>
-      <c r="AC44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>72</v>
       </c>
     </row>
     <row r="45" spans="3:30">
       <c r="X45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AD45" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="3:30">
       <c r="X46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD46" s="1">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="3:30">
       <c r="X47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Z47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AD47" s="1">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="3:30">
       <c r="X48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="Z48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD48" s="1">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="24:30">
       <c r="X49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="Z49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD49" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="24:30">
       <c r="X50" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>48</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD50" s="1">
         <v>49</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>49</v>
-      </c>
-      <c r="AC50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD50" s="1">
-        <v>77</v>
       </c>
     </row>
     <row r="51" spans="24:30">
       <c r="X51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="AD51" s="1">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="24:30">
       <c r="X52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="AD52" s="1">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="24:30">
       <c r="X53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AD53" s="1">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="24:30">
       <c r="X54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Z54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="AD54" s="1">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="24:30">
       <c r="X55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Z55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="AD55" s="1">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="24:30">
       <c r="X56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="Z56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD56" s="1">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="24:30">
       <c r="X57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="Z57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD57" s="1">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="24:30">
       <c r="X58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="Z58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="AD58" s="1">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="24:30">
       <c r="X59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="Z59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="AD59" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="24:30">
       <c r="X60" s="1">
+        <v>58</v>
+      </c>
+      <c r="Y60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y60" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="Z60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AD60" s="1">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="24:30">
       <c r="X61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AD61" s="1">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="24:30">
       <c r="X62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="AD62" s="1">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="24:30">
       <c r="X63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AD63" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="24:30">
       <c r="X64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="Z64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AD64" s="1">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="24:30">
       <c r="X65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Z65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AD65" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="24:30">
       <c r="X66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="Z66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="AD66" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="24:30">
       <c r="X67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="Z67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="AD67" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="24:30">
       <c r="X68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="Z68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AD68" s="1">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="24:30">
       <c r="X69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="Z69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD69" s="1">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="24:30">
       <c r="X70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="Z70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="AD70" s="1">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="24:30">
       <c r="X71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="AD71" s="1">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="24:30">
       <c r="X72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Z72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="AD72" s="1">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="24:30">
       <c r="X73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="Z73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="AD73" s="1">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="24:30">
       <c r="X74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="Z74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD74" s="1">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="24:30">
       <c r="X75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="AD75" s="1">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="24:30">
       <c r="X76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="AD76" s="1">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="24:30">
       <c r="X77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Z77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AD77" s="1">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="24:30">
       <c r="X78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="Z78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="AD78" s="1">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="24:30">
       <c r="X79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="Z79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AD79" s="1">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="24:30">
       <c r="X80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="Z80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD80" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="24:30">
       <c r="X81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="Z81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD81" s="1">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="24:30">
       <c r="X82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="Z82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="AD82" s="1">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="24:30">
       <c r="X83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Z83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="AD83" s="1">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="24:30">
       <c r="X84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="Z84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AD84" s="1">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="24:30">
       <c r="X85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="Z85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD85" s="1">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="24:30">
       <c r="X86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="Z86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="AD86" s="1">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="24:30">
       <c r="X87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="Z87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="AD87" s="1">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="24:30">
       <c r="X88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="Z88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AD88" s="1">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="24:30">
       <c r="X89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="Z89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="AD89" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="24:30">
       <c r="X90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="Z90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AD90" s="1">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="24:30">
       <c r="X91" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="Z91" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="AD91" s="1">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="24:30">
       <c r="X92" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Z92" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="AD92" s="1">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="24:30">
       <c r="X93" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="Z93" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="AD93" s="1">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="24:30">
       <c r="X94" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="Z94" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AD94" s="1">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="24:30">
       <c r="X95" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Z95" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AD95" s="1">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="24:30">
       <c r="X96" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="Z96" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AD96" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="24:30">
       <c r="X97" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="Z97" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="AD97" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="24:30">
       <c r="X98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="Z98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="AD98" s="1">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="24:30">
       <c r="X99" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Z99" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AD99" s="1">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="24:30">
       <c r="X100" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="Z100" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="AD100" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="24:30">
       <c r="X101" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z101" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="AD101" s="1">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="24:30">
       <c r="X102" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="Z102" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="AD102" s="1">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="24:30">
       <c r="X103" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="Z103" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="AD103" s="1">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="24:30">
       <c r="X104" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y104" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Z104" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="AD104" s="1">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="24:30">
       <c r="X105" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y105" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="Z105" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC105" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AD105" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="24:30">
       <c r="X106" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="Z106" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AD106" s="1">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="24:30">
       <c r="X107" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="Z107" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD107" s="1">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="24:30">
       <c r="X108" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y108" s="1" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="Z108" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD108" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="24:30">
       <c r="X109" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y109" s="1" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="Z109" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD109" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="24:30">
       <c r="X110" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="Z110" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD110" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="24:30">
       <c r="X111" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y111" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="Z111" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC111" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD111" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="24:30">
       <c r="X112" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="Z112" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="AD112" s="1">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="24:30">
       <c r="X113" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="Z113" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="AD113" s="1">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="24:30">
       <c r="X114" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y114" s="1" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="Z114" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AD114" s="1">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="24:30">
       <c r="X115" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y115" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z115" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="AD115" s="1">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="24:30">
       <c r="X116" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y116" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z116" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC116" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="AD116" s="1">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="24:30">
       <c r="X117" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y117" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z117" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC117" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AD117" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="24:30">
       <c r="X118" s="1">
+        <v>116</v>
+      </c>
+      <c r="Y118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z118" s="1">
+        <v>116</v>
+      </c>
+      <c r="AC118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD118" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="24:30">
+      <c r="X119" s="1">
         <v>118</v>
       </c>
-      <c r="Y118" s="1" t="s">
+      <c r="Y119" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z118" s="1">
+      <c r="Z119" s="1">
         <v>118</v>
       </c>
-      <c r="AC118" s="1" t="s">
+      <c r="AC119" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AD118" s="1">
+      <c r="AD119" s="1">
         <v>40</v>
       </c>
     </row>
@@ -3514,7 +3563,7 @@
   <mergeCells count="1">
     <mergeCell ref="H5:O5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:G15">
+  <conditionalFormatting sqref="G7:G16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3533,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503118EE-360E-453D-9722-79C533A3B2DB}">
-  <dimension ref="A6:B15"/>
+  <dimension ref="A6:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -3594,66 +3643,78 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>CONCATENATE(list!O10&amp;CHAR(10)&amp;list!O10&amp;CHAR(10)&amp;list!P10&amp;CHAR(10)&amp;list!Q10)</f>
+        <v>/process/had/rdm/nucleusLimits 233 233 92 92
+/process/had/rdm/nucleusLimits 233 233 92 92
+/analysis/h1/set 0 10000 3420 4920 keV
+/analysis/setFileName U-233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.35">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="str">
+        <f>CONCATENATE(list!O11&amp;CHAR(10)&amp;list!O11&amp;CHAR(10)&amp;list!P11&amp;CHAR(10)&amp;list!Q11)</f>
         <v>/process/had/rdm/nucleusLimits 234 234 92 92
 /process/had/rdm/nucleusLimits 234 234 92 92
 /analysis/h1/set 0 10000 3370 4870 keV
 /analysis/setFileName U-234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="57.35">
-      <c r="A11" s="1">
+    <row r="12" spans="1:2" ht="57.35">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="str">
-        <f>CONCATENATE(list!O11&amp;CHAR(10)&amp;list!O11&amp;CHAR(10)&amp;list!P11&amp;CHAR(10)&amp;list!Q11)</f>
+      <c r="B12" s="11" t="str">
+        <f>CONCATENATE(list!O12&amp;CHAR(10)&amp;list!O12&amp;CHAR(10)&amp;list!P12&amp;CHAR(10)&amp;list!Q12)</f>
         <v>/process/had/rdm/nucleusLimits 235 235 92 92
 /process/had/rdm/nucleusLimits 235 235 92 92
 /analysis/h1/set 0 10000 3190 4690 keV
 /analysis/setFileName U-235</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.35">
-      <c r="A12" s="1">
+    <row r="13" spans="1:2" ht="57.35">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="str">
-        <f>CONCATENATE(list!O12&amp;CHAR(10)&amp;list!O12&amp;CHAR(10)&amp;list!P12&amp;CHAR(10)&amp;list!Q12)</f>
+      <c r="B13" s="11" t="str">
+        <f>CONCATENATE(list!O13&amp;CHAR(10)&amp;list!O13&amp;CHAR(10)&amp;list!P13&amp;CHAR(10)&amp;list!Q13)</f>
         <v>/process/had/rdm/nucleusLimits 238 238 94 94
 /process/had/rdm/nucleusLimits 238 238 94 94
 /analysis/h1/set 0 10000 4110 5610 keV
 /analysis/setFileName Pu-238</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="57.35">
-      <c r="A13" s="1">
+    <row r="14" spans="1:2" ht="57.35">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="str">
-        <f>CONCATENATE(list!O13&amp;CHAR(10)&amp;list!O13&amp;CHAR(10)&amp;list!P13&amp;CHAR(10)&amp;list!Q13)</f>
+      <c r="B14" s="11" t="str">
+        <f>CONCATENATE(list!O14&amp;CHAR(10)&amp;list!O14&amp;CHAR(10)&amp;list!P14&amp;CHAR(10)&amp;list!Q14)</f>
         <v>/process/had/rdm/nucleusLimits 239 239 94 94
 /process/had/rdm/nucleusLimits 239 239 94 94
 /analysis/h1/set 0 10000 3760 5260 keV
 /analysis/setFileName Pu-239</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="57.35">
-      <c r="A14" s="1">
+    <row r="15" spans="1:2" ht="57.35">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="str">
-        <f>CONCATENATE(list!O14&amp;CHAR(10)&amp;list!O14&amp;CHAR(10)&amp;list!P14&amp;CHAR(10)&amp;list!Q14)</f>
+      <c r="B15" s="11" t="str">
+        <f>CONCATENATE(list!O15&amp;CHAR(10)&amp;list!O15&amp;CHAR(10)&amp;list!P15&amp;CHAR(10)&amp;list!Q15)</f>
         <v>/process/had/rdm/nucleusLimits 240 240 94 94
 /process/had/rdm/nucleusLimits 240 240 94 94
 /analysis/h1/set 0 10000 3770 5270 keV
 /analysis/setFileName Pu-240</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="57.35">
-      <c r="A15" s="1">
+    <row r="16" spans="1:2" ht="57.35">
+      <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="11" t="str">
-        <f>CONCATENATE(list!O15&amp;CHAR(10)&amp;list!O15&amp;CHAR(10)&amp;list!P15&amp;CHAR(10)&amp;list!Q15)</f>
+      <c r="B16" s="11" t="str">
+        <f>CONCATENATE(list!O16&amp;CHAR(10)&amp;list!O16&amp;CHAR(10)&amp;list!P16&amp;CHAR(10)&amp;list!Q16)</f>
         <v>/process/had/rdm/nucleusLimits 241 241 95 95
 /process/had/rdm/nucleusLimits 241 241 95 95
 /analysis/h1/set 0 10000 4150 5650 keV
@@ -3661,7 +3722,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:A15">
+  <conditionalFormatting sqref="A7:A16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
